--- a/Code/Results/Cases/Case_0_252/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_252/res_line/pl_mw.xlsx
@@ -424,31 +424,31 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.02363438810855989</v>
+        <v>0.04464623277901936</v>
       </c>
       <c r="D2">
-        <v>0.03613410915595239</v>
+        <v>0.05120756899277268</v>
       </c>
       <c r="E2">
-        <v>0.1143545059699846</v>
+        <v>0.1231914243850269</v>
       </c>
       <c r="F2">
-        <v>2.583078784196488</v>
+        <v>3.261719853951675</v>
       </c>
       <c r="G2">
-        <v>0.0008092896025853442</v>
+        <v>0.00256223626207244</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.653333501365594</v>
+        <v>1.956199376791929</v>
       </c>
       <c r="J2">
-        <v>0.2272496243440685</v>
+        <v>0.22557843212347</v>
       </c>
       <c r="K2">
-        <v>5.124845871587183</v>
+        <v>2.756743983492072</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -471,31 +471,31 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.02469178862069121</v>
+        <v>0.04488352438674603</v>
       </c>
       <c r="D3">
-        <v>0.03161774022761676</v>
+        <v>0.04998413789638079</v>
       </c>
       <c r="E3">
-        <v>0.1013325425639628</v>
+        <v>0.1206574810010821</v>
       </c>
       <c r="F3">
-        <v>2.378556138428451</v>
+        <v>3.239797117299972</v>
       </c>
       <c r="G3">
-        <v>0.0008193023608105276</v>
+        <v>0.002568249987252136</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.517871476811052</v>
+        <v>1.940452123511534</v>
       </c>
       <c r="J3">
-        <v>0.2023768161301547</v>
+        <v>0.2211319605938726</v>
       </c>
       <c r="K3">
-        <v>4.43381144664977</v>
+        <v>2.585126526994713</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -518,31 +518,31 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.02535137127774867</v>
+        <v>0.04503551992229582</v>
       </c>
       <c r="D4">
-        <v>0.02885092458884486</v>
+        <v>0.04924358304448617</v>
       </c>
       <c r="E4">
-        <v>0.09352225400017744</v>
+        <v>0.1191657467624339</v>
       </c>
       <c r="F4">
-        <v>2.260254667873994</v>
+        <v>3.228481138575887</v>
       </c>
       <c r="G4">
-        <v>0.0008255901884925594</v>
+        <v>0.002572132344621392</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.439563310646918</v>
+        <v>1.932140555824589</v>
       </c>
       <c r="J4">
-        <v>0.1876171375281075</v>
+        <v>0.2185449907730614</v>
       </c>
       <c r="K4">
-        <v>4.016421088137349</v>
+        <v>2.481170118028786</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -565,31 +565,31 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.02562278209398094</v>
+        <v>0.04509905269896564</v>
       </c>
       <c r="D5">
-        <v>0.02772444301113808</v>
+        <v>0.04894453693743372</v>
       </c>
       <c r="E5">
-        <v>0.09038062056502127</v>
+        <v>0.118573948526393</v>
       </c>
       <c r="F5">
-        <v>2.21369540161308</v>
+        <v>3.22440582127534</v>
       </c>
       <c r="G5">
-        <v>0.0008281901923661083</v>
+        <v>0.002573762365045627</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.40875344173142</v>
+        <v>1.929092505581821</v>
       </c>
       <c r="J5">
-        <v>0.1817166975185316</v>
+        <v>0.2175265770613493</v>
       </c>
       <c r="K5">
-        <v>3.847809565914361</v>
+        <v>2.439161996027906</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -612,31 +612,31 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.02566800924617318</v>
+        <v>0.04510969879759585</v>
       </c>
       <c r="D6">
-        <v>0.02753743839372191</v>
+        <v>0.04889504763417563</v>
       </c>
       <c r="E6">
-        <v>0.08986128880328081</v>
+        <v>0.1184766522604725</v>
       </c>
       <c r="F6">
-        <v>2.206058955391086</v>
+        <v>3.223761398291089</v>
       </c>
       <c r="G6">
-        <v>0.0008286242639030173</v>
+        <v>0.002574035928300818</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.403700649032515</v>
+        <v>1.928606785020591</v>
       </c>
       <c r="J6">
-        <v>0.1807434345694929</v>
+        <v>0.2173596263405173</v>
       </c>
       <c r="K6">
-        <v>3.819893970983287</v>
+        <v>2.432207977492112</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -659,31 +659,31 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.02535502094370123</v>
+        <v>0.04503637028257579</v>
       </c>
       <c r="D7">
-        <v>0.02883572901729536</v>
+        <v>0.04923953884367904</v>
       </c>
       <c r="E7">
-        <v>0.09347972516089698</v>
+        <v>0.1191577004280902</v>
       </c>
       <c r="F7">
-        <v>2.259620300030619</v>
+        <v>3.228424011308661</v>
       </c>
       <c r="G7">
-        <v>0.0008256250974100609</v>
+        <v>0.002572154133496776</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.43914349184378</v>
+        <v>1.932098079286021</v>
       </c>
       <c r="J7">
-        <v>0.1875371177897449</v>
+        <v>0.2185311114169082</v>
       </c>
       <c r="K7">
-        <v>4.014141471133314</v>
+        <v>2.480602146437718</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -706,31 +706,31 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.02399684714292505</v>
+        <v>0.0447267496773236</v>
       </c>
       <c r="D8">
-        <v>0.03457520717608986</v>
+        <v>0.05078355820105429</v>
       </c>
       <c r="E8">
-        <v>0.1098226221091849</v>
+        <v>0.1223043951222245</v>
       </c>
       <c r="F8">
-        <v>2.510935129196042</v>
+        <v>3.253713786064495</v>
       </c>
       <c r="G8">
-        <v>0.0008127145161846611</v>
+        <v>0.00256427048473413</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.605538828699935</v>
+        <v>1.95048660152726</v>
       </c>
       <c r="J8">
-        <v>0.2185579060227383</v>
+        <v>0.2240154442100817</v>
       </c>
       <c r="K8">
-        <v>4.884979396807637</v>
+        <v>2.697275136517362</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -753,31 +753,31 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.02141499348284626</v>
+        <v>0.04416912428142794</v>
       </c>
       <c r="D9">
-        <v>0.04591003314013165</v>
+        <v>0.05389331329784142</v>
       </c>
       <c r="E9">
-        <v>0.1436200407366002</v>
+        <v>0.1289855866347303</v>
       </c>
       <c r="F9">
-        <v>3.07066697342168</v>
+        <v>3.320478019348684</v>
       </c>
       <c r="G9">
-        <v>0.0007883819779894346</v>
+        <v>0.002550309503097509</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.976673118002111</v>
+        <v>1.997425481733799</v>
       </c>
       <c r="J9">
-        <v>0.2841989284724917</v>
+        <v>0.2359165469682409</v>
       </c>
       <c r="K9">
-        <v>6.660758500733778</v>
+        <v>3.133511844213615</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -800,31 +800,31 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.01956864251822843</v>
+        <v>0.04378906433940699</v>
       </c>
       <c r="D10">
-        <v>0.05433703527303635</v>
+        <v>0.05622503614063135</v>
       </c>
       <c r="E10">
-        <v>0.1699656865026213</v>
+        <v>0.1342087894404642</v>
       </c>
       <c r="F10">
-        <v>3.537386759679208</v>
+        <v>3.38022126288655</v>
       </c>
       <c r="G10">
-        <v>0.0007709052821585028</v>
+        <v>0.002540954872361504</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2.286651289536366</v>
+        <v>2.038701681819248</v>
       </c>
       <c r="J10">
-        <v>0.3365526500443536</v>
+        <v>0.2453746955705896</v>
       </c>
       <c r="K10">
-        <v>8.028287396132441</v>
+        <v>3.461103402948083</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -847,31 +847,31 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.01874047268710655</v>
+        <v>0.04362248331504759</v>
       </c>
       <c r="D11">
-        <v>0.05820627802795997</v>
+        <v>0.05729541376341984</v>
       </c>
       <c r="E11">
-        <v>0.1823999402686738</v>
+        <v>0.1366540540424523</v>
       </c>
       <c r="F11">
-        <v>3.765701055882289</v>
+        <v>3.409770929657384</v>
       </c>
       <c r="G11">
-        <v>0.0007629883903204072</v>
+        <v>0.002536892773279521</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2.43844509450453</v>
+        <v>2.05898851279207</v>
       </c>
       <c r="J11">
-        <v>0.3615868260075956</v>
+        <v>0.2498360785733666</v>
       </c>
       <c r="K11">
-        <v>8.669802889037271</v>
+        <v>3.611714384661127</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -894,31 +894,31 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.01842868688561161</v>
+        <v>0.04356030243461362</v>
       </c>
       <c r="D12">
-        <v>0.05967800489208486</v>
+        <v>0.05770207547995909</v>
       </c>
       <c r="E12">
-        <v>0.1871850630236764</v>
+        <v>0.1375900172951745</v>
       </c>
       <c r="F12">
-        <v>3.854853904590556</v>
+        <v>3.421305622291186</v>
       </c>
       <c r="G12">
-        <v>0.0007599899794391436</v>
+        <v>0.002535382183783449</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2.497744329393811</v>
+        <v>2.066890502679328</v>
       </c>
       <c r="J12">
-        <v>0.3712739216550602</v>
+        <v>0.2515485929320818</v>
       </c>
       <c r="K12">
-        <v>8.916094061657134</v>
+        <v>3.668977975758992</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -941,31 +941,31 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.01849575160577288</v>
+        <v>0.0435736543018308</v>
       </c>
       <c r="D13">
-        <v>0.05936072713476648</v>
+        <v>0.05761443521131326</v>
       </c>
       <c r="E13">
-        <v>0.1861508862663115</v>
+        <v>0.1373879956345476</v>
       </c>
       <c r="F13">
-        <v>3.835526380319578</v>
+        <v>3.418806021060533</v>
       </c>
       <c r="G13">
-        <v>0.000760635854070626</v>
+        <v>0.002535706289750229</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2.484887564512746</v>
+        <v>2.065178849114147</v>
       </c>
       <c r="J13">
-        <v>0.3691778491176478</v>
+        <v>0.2511787416134723</v>
       </c>
       <c r="K13">
-        <v>8.862891153129453</v>
+        <v>3.656634950791783</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -988,31 +988,31 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.01871478433469775</v>
+        <v>0.04361734966741437</v>
       </c>
       <c r="D14">
-        <v>0.05832721823592379</v>
+        <v>0.05732884367432689</v>
       </c>
       <c r="E14">
-        <v>0.1827920060006321</v>
+        <v>0.1367308557389322</v>
       </c>
       <c r="F14">
-        <v>3.77297920387366</v>
+        <v>3.41071296225266</v>
       </c>
       <c r="G14">
-        <v>0.000762741751536988</v>
+        <v>0.002536767943232301</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2.44328554472753</v>
+        <v>2.059634193653906</v>
       </c>
       <c r="J14">
-        <v>0.3623794340280142</v>
+        <v>0.2499765040632127</v>
       </c>
       <c r="K14">
-        <v>8.689994398790361</v>
+        <v>3.616420862902544</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1035,31 +1035,31 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.01884919078994685</v>
+        <v>0.04364423129211659</v>
       </c>
       <c r="D15">
-        <v>0.05769505966024013</v>
+        <v>0.05715408253598753</v>
       </c>
       <c r="E15">
-        <v>0.1807449493698314</v>
+        <v>0.1363296414984276</v>
       </c>
       <c r="F15">
-        <v>3.735031070115951</v>
+        <v>3.405800755345098</v>
       </c>
       <c r="G15">
-        <v>0.0007640314447696293</v>
+        <v>0.002537421831336105</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2.418048598319785</v>
+        <v>2.056266636909982</v>
       </c>
       <c r="J15">
-        <v>0.358243233257042</v>
+        <v>0.2492431126611194</v>
       </c>
       <c r="K15">
-        <v>8.584546688000671</v>
+        <v>3.59181865386887</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1082,31 +1082,31 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.01962301195773364</v>
+        <v>0.04380007711394818</v>
       </c>
       <c r="D16">
-        <v>0.05408500391077808</v>
+        <v>0.05615527403794118</v>
       </c>
       <c r="E16">
-        <v>0.1691630980843115</v>
+        <v>0.1340503818392946</v>
       </c>
       <c r="F16">
-        <v>3.522820110341769</v>
+        <v>3.378338177155513</v>
       </c>
       <c r="G16">
-        <v>0.0007714229107910587</v>
+        <v>0.002541224216611404</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>2.276970078606567</v>
+        <v>2.037406503067871</v>
       </c>
       <c r="J16">
-        <v>0.3349437400301696</v>
+        <v>0.2450863506265648</v>
       </c>
       <c r="K16">
-        <v>7.986800302784502</v>
+        <v>3.451292754399105</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1129,31 +1129,31 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.02010081299993161</v>
+        <v>0.04389729408970311</v>
       </c>
       <c r="D17">
-        <v>0.05188042443160157</v>
+        <v>0.0555449719207104</v>
       </c>
       <c r="E17">
-        <v>0.1621810177737544</v>
+        <v>0.1326698845233523</v>
       </c>
       <c r="F17">
-        <v>3.396994627143187</v>
+        <v>3.362101005161321</v>
       </c>
       <c r="G17">
-        <v>0.0007759623960922898</v>
+        <v>0.002543606264587935</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>2.193361826498105</v>
+        <v>2.026225072845961</v>
       </c>
       <c r="J17">
-        <v>0.3209834493346904</v>
+        <v>0.2425771644266206</v>
       </c>
       <c r="K17">
-        <v>7.625453688746347</v>
+        <v>3.365492858111566</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1176,31 +1176,31 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.02037672588154393</v>
+        <v>0.04395380509738622</v>
       </c>
       <c r="D18">
-        <v>0.05061567840495229</v>
+        <v>0.05519485533012158</v>
       </c>
       <c r="E18">
-        <v>0.158206602365361</v>
+        <v>0.131882369999694</v>
       </c>
       <c r="F18">
-        <v>3.326102188613334</v>
+        <v>3.352984865295497</v>
       </c>
       <c r="G18">
-        <v>0.0007785768857998334</v>
+        <v>0.002544994566427318</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>2.146269172554</v>
+        <v>2.019935785142025</v>
       </c>
       <c r="J18">
-        <v>0.3130663254032129</v>
+        <v>0.2411488810941051</v>
       </c>
       <c r="K18">
-        <v>7.419405398542153</v>
+        <v>3.316292356030317</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1223,31 +1223,31 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.02047032999019827</v>
+        <v>0.04397304107687461</v>
       </c>
       <c r="D19">
-        <v>0.05018798021777116</v>
+        <v>0.05507647044287722</v>
       </c>
       <c r="E19">
-        <v>0.156867727654884</v>
+        <v>0.1316168481097293</v>
       </c>
       <c r="F19">
-        <v>3.30234226894197</v>
+        <v>3.349936492476274</v>
       </c>
       <c r="G19">
-        <v>0.0007794628546124343</v>
+        <v>0.002545467754604974</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>2.130488119074798</v>
+        <v>2.017830644185949</v>
       </c>
       <c r="J19">
-        <v>0.3104041470642755</v>
+        <v>0.240667846420564</v>
       </c>
       <c r="K19">
-        <v>7.349932295922258</v>
+        <v>3.299659495657806</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1270,31 +1270,31 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.02004983620366119</v>
+        <v>0.04388688371820137</v>
       </c>
       <c r="D20">
-        <v>0.05211475797003118</v>
+        <v>0.05560984554293924</v>
       </c>
       <c r="E20">
-        <v>0.162919897635831</v>
+        <v>0.1328161666481904</v>
       </c>
       <c r="F20">
-        <v>3.410233236709303</v>
+        <v>3.363806367711533</v>
       </c>
       <c r="G20">
-        <v>0.0007754788336412147</v>
+        <v>0.002543350807957722</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>2.202157123324966</v>
+        <v>2.027400642116902</v>
       </c>
       <c r="J20">
-        <v>0.3224576909241677</v>
+        <v>0.2428427241752331</v>
       </c>
       <c r="K20">
-        <v>7.663730687164957</v>
+        <v>3.374610933471047</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1317,31 +1317,31 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.01865039822983228</v>
+        <v>0.04360449091956298</v>
       </c>
       <c r="D21">
-        <v>0.05863059541549376</v>
+        <v>0.05741269310206576</v>
       </c>
       <c r="E21">
-        <v>0.1837764086006857</v>
+        <v>0.1369236020477871</v>
       </c>
       <c r="F21">
-        <v>3.791274207032558</v>
+        <v>3.413080699794278</v>
       </c>
       <c r="G21">
-        <v>0.0007621232568172171</v>
+        <v>0.002536455361214695</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>2.455453363397453</v>
+        <v>2.061256806517861</v>
       </c>
       <c r="J21">
-        <v>0.3643703880755425</v>
+        <v>0.250329001851938</v>
       </c>
       <c r="K21">
-        <v>8.740682066868715</v>
+        <v>3.628226442489051</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1364,31 +1364,31 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.01774652647142361</v>
+        <v>0.04342517198166007</v>
       </c>
       <c r="D22">
-        <v>0.06292795202224966</v>
+        <v>0.05859870221127039</v>
       </c>
       <c r="E22">
-        <v>0.1978605076310345</v>
+        <v>0.1396663266343836</v>
       </c>
       <c r="F22">
-        <v>4.056249817494461</v>
+        <v>3.447296298174763</v>
       </c>
       <c r="G22">
-        <v>0.0007533888634353628</v>
+        <v>0.002532109812672962</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2.631753735025882</v>
+        <v>2.084666227551281</v>
       </c>
       <c r="J22">
-        <v>0.3929894383461203</v>
+        <v>0.2553563946484587</v>
       </c>
       <c r="K22">
-        <v>9.46447314679466</v>
+        <v>3.795323337707373</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1411,31 +1411,31 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.0182278957643458</v>
+        <v>0.04352040074423513</v>
       </c>
       <c r="D23">
-        <v>0.06063029087687255</v>
+        <v>0.05796501668135079</v>
       </c>
       <c r="E23">
-        <v>0.1902976262192055</v>
+        <v>0.1381971355226028</v>
       </c>
       <c r="F23">
-        <v>3.91322019320944</v>
+        <v>3.428849439236529</v>
       </c>
       <c r="G23">
-        <v>0.0007580530693851291</v>
+        <v>0.002534414434744022</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2.536573974316582</v>
+        <v>2.072053947299409</v>
       </c>
       <c r="J23">
-        <v>0.3775906244277678</v>
+        <v>0.2526607747046654</v>
       </c>
       <c r="K23">
-        <v>9.076133029588959</v>
+        <v>3.706016820106129</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1458,31 +1458,31 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.0200728790269622</v>
+        <v>0.04389158831618012</v>
       </c>
       <c r="D24">
-        <v>0.05200880748078873</v>
+        <v>0.05558051382469387</v>
       </c>
       <c r="E24">
-        <v>0.1625857273412024</v>
+        <v>0.1327500133413366</v>
       </c>
       <c r="F24">
-        <v>3.404243585305096</v>
+        <v>3.363034691990407</v>
       </c>
       <c r="G24">
-        <v>0.0007756974373102029</v>
+        <v>0.002543466241253882</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>2.198177752829451</v>
+        <v>2.026868734292407</v>
       </c>
       <c r="J24">
-        <v>0.3217908496543771</v>
+        <v>0.2427226201481574</v>
       </c>
       <c r="K24">
-        <v>7.646420419396463</v>
+        <v>3.370488256179954</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1505,31 +1505,31 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.02210473430771742</v>
+        <v>0.04431473388715723</v>
       </c>
       <c r="D25">
-        <v>0.04283038466998335</v>
+        <v>0.05304358222103644</v>
       </c>
       <c r="E25">
-        <v>0.1342470917660563</v>
+        <v>0.1271231589882049</v>
       </c>
       <c r="F25">
-        <v>2.910686674514125</v>
+        <v>3.300555270540031</v>
       </c>
       <c r="G25">
-        <v>0.0007948781834733192</v>
+        <v>0.002553927020508039</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.870524797943332</v>
+        <v>1.983546348395492</v>
       </c>
       <c r="J25">
-        <v>0.2658129683080261</v>
+        <v>0.2325726660076839</v>
       </c>
       <c r="K25">
-        <v>6.171048886073834</v>
+        <v>3.014266470208554</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_252/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_252/res_line/pl_mw.xlsx
@@ -424,31 +424,31 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.04464623277901936</v>
+        <v>0.02363438810854035</v>
       </c>
       <c r="D2">
-        <v>0.05120756899277268</v>
+        <v>0.03613410915606607</v>
       </c>
       <c r="E2">
-        <v>0.1231914243850269</v>
+        <v>0.1143545059699811</v>
       </c>
       <c r="F2">
-        <v>3.261719853951675</v>
+        <v>2.58307878419653</v>
       </c>
       <c r="G2">
-        <v>0.00256223626207244</v>
+        <v>0.0008092896025843335</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.956199376791929</v>
+        <v>1.653333501365609</v>
       </c>
       <c r="J2">
-        <v>0.22557843212347</v>
+        <v>0.2272496243440401</v>
       </c>
       <c r="K2">
-        <v>2.756743983492072</v>
+        <v>5.12484587158707</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -471,31 +471,31 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.04488352438674603</v>
+        <v>0.02469178862116017</v>
       </c>
       <c r="D3">
-        <v>0.04998413789638079</v>
+        <v>0.03161774022760255</v>
       </c>
       <c r="E3">
-        <v>0.1206574810010821</v>
+        <v>0.1013325425639593</v>
       </c>
       <c r="F3">
-        <v>3.239797117299972</v>
+        <v>2.378556138428465</v>
       </c>
       <c r="G3">
-        <v>0.002568249987252136</v>
+        <v>0.0008193023608603501</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.940452123511534</v>
+        <v>1.517871476811038</v>
       </c>
       <c r="J3">
-        <v>0.2211319605938726</v>
+        <v>0.2023768161301405</v>
       </c>
       <c r="K3">
-        <v>2.585126526994713</v>
+        <v>4.433811446649827</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -518,31 +518,31 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.04503551992229582</v>
+        <v>0.02535137127774867</v>
       </c>
       <c r="D4">
-        <v>0.04924358304448617</v>
+        <v>0.02885092458897276</v>
       </c>
       <c r="E4">
-        <v>0.1191657467624339</v>
+        <v>0.09352225400016678</v>
       </c>
       <c r="F4">
-        <v>3.228481138575887</v>
+        <v>2.260254667873966</v>
       </c>
       <c r="G4">
-        <v>0.002572132344621392</v>
+        <v>0.0008255901884643962</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.932140555824589</v>
+        <v>1.439563310646946</v>
       </c>
       <c r="J4">
-        <v>0.2185449907730614</v>
+        <v>0.1876171375281857</v>
       </c>
       <c r="K4">
-        <v>2.481170118028786</v>
+        <v>4.016421088137349</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -565,31 +565,31 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.04509905269896564</v>
+        <v>0.02562278209440372</v>
       </c>
       <c r="D5">
-        <v>0.04894453693743372</v>
+        <v>0.02772444301123045</v>
       </c>
       <c r="E5">
-        <v>0.118573948526393</v>
+        <v>0.09038062056501417</v>
       </c>
       <c r="F5">
-        <v>3.22440582127534</v>
+        <v>2.213695401613066</v>
       </c>
       <c r="G5">
-        <v>0.002573762365045627</v>
+        <v>0.0008281901924431205</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.929092505581821</v>
+        <v>1.408753441731406</v>
       </c>
       <c r="J5">
-        <v>0.2175265770613493</v>
+        <v>0.1817166975184747</v>
       </c>
       <c r="K5">
-        <v>2.439161996027906</v>
+        <v>3.847809565914417</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -612,31 +612,31 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.04510969879759585</v>
+        <v>0.02566800924635437</v>
       </c>
       <c r="D6">
-        <v>0.04889504763417563</v>
+        <v>0.02753743839371481</v>
       </c>
       <c r="E6">
-        <v>0.1184766522604725</v>
+        <v>0.08986128880327726</v>
       </c>
       <c r="F6">
-        <v>3.223761398291089</v>
+        <v>2.206058955391086</v>
       </c>
       <c r="G6">
-        <v>0.002574035928300818</v>
+        <v>0.0008286242639008456</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.928606785020591</v>
+        <v>1.403700649032515</v>
       </c>
       <c r="J6">
-        <v>0.2173596263405173</v>
+        <v>0.180743434569564</v>
       </c>
       <c r="K6">
-        <v>2.432207977492112</v>
+        <v>3.819893970983401</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -659,31 +659,31 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.04503637028257579</v>
+        <v>0.0253550209430351</v>
       </c>
       <c r="D7">
-        <v>0.04923953884367904</v>
+        <v>0.02883572901730247</v>
       </c>
       <c r="E7">
-        <v>0.1191577004280902</v>
+        <v>0.09347972516090053</v>
       </c>
       <c r="F7">
-        <v>3.228424011308661</v>
+        <v>2.259620300030633</v>
       </c>
       <c r="G7">
-        <v>0.002572154133496776</v>
+        <v>0.0008256250974084435</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.932098079286021</v>
+        <v>1.43914349184378</v>
       </c>
       <c r="J7">
-        <v>0.2185311114169082</v>
+        <v>0.1875371177897804</v>
       </c>
       <c r="K7">
-        <v>2.480602146437718</v>
+        <v>4.014141471133371</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -706,31 +706,31 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.0447267496773236</v>
+        <v>0.02399684714296058</v>
       </c>
       <c r="D8">
-        <v>0.05078355820105429</v>
+        <v>0.03457520717599039</v>
       </c>
       <c r="E8">
-        <v>0.1223043951222245</v>
+        <v>0.109822622109192</v>
       </c>
       <c r="F8">
-        <v>3.253713786064495</v>
+        <v>2.510935129196014</v>
       </c>
       <c r="G8">
-        <v>0.00256427048473413</v>
+        <v>0.0008127145162389143</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.95048660152726</v>
+        <v>1.605538828699935</v>
       </c>
       <c r="J8">
-        <v>0.2240154442100817</v>
+        <v>0.2185579060227525</v>
       </c>
       <c r="K8">
-        <v>2.697275136517362</v>
+        <v>4.884979396807637</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -753,31 +753,31 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.04416912428142794</v>
+        <v>0.0214149934828427</v>
       </c>
       <c r="D9">
-        <v>0.05389331329784142</v>
+        <v>0.04591003314000375</v>
       </c>
       <c r="E9">
-        <v>0.1289855866347303</v>
+        <v>0.1436200407365895</v>
       </c>
       <c r="F9">
-        <v>3.320478019348684</v>
+        <v>3.07066697342168</v>
       </c>
       <c r="G9">
-        <v>0.002550309503097509</v>
+        <v>0.0007883819778714213</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.997425481733799</v>
+        <v>1.976673118002111</v>
       </c>
       <c r="J9">
-        <v>0.2359165469682409</v>
+        <v>0.2841989284725628</v>
       </c>
       <c r="K9">
-        <v>3.133511844213615</v>
+        <v>6.660758500733778</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -800,31 +800,31 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.04378906433940699</v>
+        <v>0.01956864251847534</v>
       </c>
       <c r="D10">
-        <v>0.05622503614063135</v>
+        <v>0.05433703527278055</v>
       </c>
       <c r="E10">
-        <v>0.1342087894404642</v>
+        <v>0.1699656865025929</v>
       </c>
       <c r="F10">
-        <v>3.38022126288655</v>
+        <v>3.537386759679237</v>
       </c>
       <c r="G10">
-        <v>0.002540954872361504</v>
+        <v>0.0007709052822210675</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2.038701681819248</v>
+        <v>2.286651289536366</v>
       </c>
       <c r="J10">
-        <v>0.2453746955705896</v>
+        <v>0.3365526500441973</v>
       </c>
       <c r="K10">
-        <v>3.461103402948083</v>
+        <v>8.028287396132441</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -847,31 +847,31 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.04362248331504759</v>
+        <v>0.01874047268687384</v>
       </c>
       <c r="D11">
-        <v>0.05729541376341984</v>
+        <v>0.05820627802794576</v>
       </c>
       <c r="E11">
-        <v>0.1366540540424523</v>
+        <v>0.1823999402686667</v>
       </c>
       <c r="F11">
-        <v>3.409770929657384</v>
+        <v>3.765701055882317</v>
       </c>
       <c r="G11">
-        <v>0.002536892773279521</v>
+        <v>0.0007629883903185571</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2.05898851279207</v>
+        <v>2.43844509450453</v>
       </c>
       <c r="J11">
-        <v>0.2498360785733666</v>
+        <v>0.3615868260077377</v>
       </c>
       <c r="K11">
-        <v>3.611714384661127</v>
+        <v>8.669802889037328</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -894,31 +894,31 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.04356030243461362</v>
+        <v>0.01842868688587274</v>
       </c>
       <c r="D12">
-        <v>0.05770207547995909</v>
+        <v>0.05967800489208486</v>
       </c>
       <c r="E12">
-        <v>0.1375900172951745</v>
+        <v>0.187185063023712</v>
       </c>
       <c r="F12">
-        <v>3.421305622291186</v>
+        <v>3.854853904590556</v>
       </c>
       <c r="G12">
-        <v>0.002535382183783449</v>
+        <v>0.0007599899794950016</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2.066890502679328</v>
+        <v>2.497744329393811</v>
       </c>
       <c r="J12">
-        <v>0.2515485929320818</v>
+        <v>0.3712739216550887</v>
       </c>
       <c r="K12">
-        <v>3.668977975758992</v>
+        <v>8.916094061657077</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -941,31 +941,31 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.0435736543018308</v>
+        <v>0.01849575160548866</v>
       </c>
       <c r="D13">
-        <v>0.05761443521131326</v>
+        <v>0.05936072713522123</v>
       </c>
       <c r="E13">
-        <v>0.1373879956345476</v>
+        <v>0.1861508862663328</v>
       </c>
       <c r="F13">
-        <v>3.418806021060533</v>
+        <v>3.835526380319578</v>
       </c>
       <c r="G13">
-        <v>0.002535706289750229</v>
+        <v>0.0007606358540657718</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2.065178849114147</v>
+        <v>2.484887564512746</v>
       </c>
       <c r="J13">
-        <v>0.2511787416134723</v>
+        <v>0.3691778491177757</v>
       </c>
       <c r="K13">
-        <v>3.656634950791783</v>
+        <v>8.86289115312951</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -988,31 +988,31 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.04361734966741437</v>
+        <v>0.01871478433447393</v>
       </c>
       <c r="D14">
-        <v>0.05732884367432689</v>
+        <v>0.0583272182359309</v>
       </c>
       <c r="E14">
-        <v>0.1367308557389322</v>
+        <v>0.1827920060005965</v>
       </c>
       <c r="F14">
-        <v>3.41071296225266</v>
+        <v>3.772979203873689</v>
       </c>
       <c r="G14">
-        <v>0.002536767943232301</v>
+        <v>0.0007627417514718262</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2.059634193653906</v>
+        <v>2.44328554472753</v>
       </c>
       <c r="J14">
-        <v>0.2499765040632127</v>
+        <v>0.3623794340279858</v>
       </c>
       <c r="K14">
-        <v>3.616420862902544</v>
+        <v>8.689994398790247</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1035,31 +1035,31 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.04364423129211659</v>
+        <v>0.01884919078995395</v>
       </c>
       <c r="D15">
-        <v>0.05715408253598753</v>
+        <v>0.05769505966063804</v>
       </c>
       <c r="E15">
-        <v>0.1363296414984276</v>
+        <v>0.1807449493698527</v>
       </c>
       <c r="F15">
-        <v>3.405800755345098</v>
+        <v>3.73503107011598</v>
       </c>
       <c r="G15">
-        <v>0.002537421831336105</v>
+        <v>0.0007640314447066239</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2.056266636909982</v>
+        <v>2.418048598319771</v>
       </c>
       <c r="J15">
-        <v>0.2492431126611194</v>
+        <v>0.358243233257042</v>
       </c>
       <c r="K15">
-        <v>3.59181865386887</v>
+        <v>8.584546688000671</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1082,31 +1082,31 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.04380007711394818</v>
+        <v>0.01962301195799832</v>
       </c>
       <c r="D16">
-        <v>0.05615527403794118</v>
+        <v>0.0540850039109273</v>
       </c>
       <c r="E16">
-        <v>0.1340503818392946</v>
+        <v>0.1691630980843115</v>
       </c>
       <c r="F16">
-        <v>3.378338177155513</v>
+        <v>3.522820110341769</v>
       </c>
       <c r="G16">
-        <v>0.002541224216611404</v>
+        <v>0.0007714229106797341</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>2.037406503067871</v>
+        <v>2.276970078606553</v>
       </c>
       <c r="J16">
-        <v>0.2450863506265648</v>
+        <v>0.3349437400302122</v>
       </c>
       <c r="K16">
-        <v>3.451292754399105</v>
+        <v>7.986800302784388</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1129,31 +1129,31 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.04389729408970311</v>
+        <v>0.02010081299968292</v>
       </c>
       <c r="D17">
-        <v>0.0555449719207104</v>
+        <v>0.05188042443155894</v>
       </c>
       <c r="E17">
-        <v>0.1326698845233523</v>
+        <v>0.1621810177737686</v>
       </c>
       <c r="F17">
-        <v>3.362101005161321</v>
+        <v>3.396994627143187</v>
       </c>
       <c r="G17">
-        <v>0.002543606264587935</v>
+        <v>0.0007759623962067161</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>2.026225072845961</v>
+        <v>2.193361826498119</v>
       </c>
       <c r="J17">
-        <v>0.2425771644266206</v>
+        <v>0.3209834493346619</v>
       </c>
       <c r="K17">
-        <v>3.365492858111566</v>
+        <v>7.625453688746404</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1176,31 +1176,31 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.04395380509738622</v>
+        <v>0.02037672588132367</v>
       </c>
       <c r="D18">
-        <v>0.05519485533012158</v>
+        <v>0.0506156784049594</v>
       </c>
       <c r="E18">
-        <v>0.131882369999694</v>
+        <v>0.1582066023653752</v>
       </c>
       <c r="F18">
-        <v>3.352984865295497</v>
+        <v>3.326102188613334</v>
       </c>
       <c r="G18">
-        <v>0.002544994566427318</v>
+        <v>0.0007785768858009951</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>2.019935785142025</v>
+        <v>2.146269172554</v>
       </c>
       <c r="J18">
-        <v>0.2411488810941051</v>
+        <v>0.3130663254032697</v>
       </c>
       <c r="K18">
-        <v>3.316292356030317</v>
+        <v>7.41940539854221</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1223,31 +1223,31 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.04397304107687461</v>
+        <v>0.02047032998995313</v>
       </c>
       <c r="D19">
-        <v>0.05507647044287722</v>
+        <v>0.05018798021765747</v>
       </c>
       <c r="E19">
-        <v>0.1316168481097293</v>
+        <v>0.1568677276548556</v>
       </c>
       <c r="F19">
-        <v>3.349936492476274</v>
+        <v>3.30234226894197</v>
       </c>
       <c r="G19">
-        <v>0.002545467754604974</v>
+        <v>0.0007794628544941176</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>2.017830644185949</v>
+        <v>2.130488119074812</v>
       </c>
       <c r="J19">
-        <v>0.240667846420564</v>
+        <v>0.3104041470643466</v>
       </c>
       <c r="K19">
-        <v>3.299659495657806</v>
+        <v>7.349932295922258</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1270,31 +1270,31 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.04388688371820137</v>
+        <v>0.02004983620320999</v>
       </c>
       <c r="D20">
-        <v>0.05560984554293924</v>
+        <v>0.05211475797003118</v>
       </c>
       <c r="E20">
-        <v>0.1328161666481904</v>
+        <v>0.1629198976358239</v>
       </c>
       <c r="F20">
-        <v>3.363806367711533</v>
+        <v>3.410233236709303</v>
       </c>
       <c r="G20">
-        <v>0.002543350807957722</v>
+        <v>0.0007754788336369541</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>2.027400642116902</v>
+        <v>2.202157123324966</v>
       </c>
       <c r="J20">
-        <v>0.2428427241752331</v>
+        <v>0.3224576909241819</v>
       </c>
       <c r="K20">
-        <v>3.374610933471047</v>
+        <v>7.663730687164957</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1317,31 +1317,31 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.04360449091956298</v>
+        <v>0.01865039822978787</v>
       </c>
       <c r="D21">
-        <v>0.05741269310206576</v>
+        <v>0.05863059541561455</v>
       </c>
       <c r="E21">
-        <v>0.1369236020477871</v>
+        <v>0.1837764086006715</v>
       </c>
       <c r="F21">
-        <v>3.413080699794278</v>
+        <v>3.791274207032558</v>
       </c>
       <c r="G21">
-        <v>0.002536455361214695</v>
+        <v>0.0007621232568727864</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>2.061256806517861</v>
+        <v>2.455453363397424</v>
       </c>
       <c r="J21">
-        <v>0.250329001851938</v>
+        <v>0.3643703880755709</v>
       </c>
       <c r="K21">
-        <v>3.628226442489051</v>
+        <v>8.740682066868771</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1364,31 +1364,31 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.04342517198166007</v>
+        <v>0.0177465264716492</v>
       </c>
       <c r="D22">
-        <v>0.05859870221127039</v>
+        <v>0.06292795202202228</v>
       </c>
       <c r="E22">
-        <v>0.1396663266343836</v>
+        <v>0.1978605076310345</v>
       </c>
       <c r="F22">
-        <v>3.447296298174763</v>
+        <v>4.056249817494461</v>
       </c>
       <c r="G22">
-        <v>0.002532109812672962</v>
+        <v>0.0007533888633123847</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2.084666227551281</v>
+        <v>2.631753735025896</v>
       </c>
       <c r="J22">
-        <v>0.2553563946484587</v>
+        <v>0.392989438346234</v>
       </c>
       <c r="K22">
-        <v>3.795323337707373</v>
+        <v>9.464473146794774</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1411,31 +1411,31 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.04352040074423513</v>
+        <v>0.01822789576455897</v>
       </c>
       <c r="D23">
-        <v>0.05796501668135079</v>
+        <v>0.06063029087685834</v>
       </c>
       <c r="E23">
-        <v>0.1381971355226028</v>
+        <v>0.1902976262191771</v>
       </c>
       <c r="F23">
-        <v>3.428849439236529</v>
+        <v>3.91322019320944</v>
       </c>
       <c r="G23">
-        <v>0.002534414434744022</v>
+        <v>0.0007580530695061422</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2.072053947299409</v>
+        <v>2.53657397431661</v>
       </c>
       <c r="J23">
-        <v>0.2526607747046654</v>
+        <v>0.3775906244278673</v>
       </c>
       <c r="K23">
-        <v>3.706016820106129</v>
+        <v>9.076133029588846</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1458,31 +1458,31 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.04389158831618012</v>
+        <v>0.02007287902747024</v>
       </c>
       <c r="D24">
-        <v>0.05558051382469387</v>
+        <v>0.05200880748068926</v>
       </c>
       <c r="E24">
-        <v>0.1327500133413366</v>
+        <v>0.1625857273412521</v>
       </c>
       <c r="F24">
-        <v>3.363034691990407</v>
+        <v>3.404243585305124</v>
       </c>
       <c r="G24">
-        <v>0.002543466241253882</v>
+        <v>0.0007756974372558336</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>2.026868734292407</v>
+        <v>2.198177752829451</v>
       </c>
       <c r="J24">
-        <v>0.2427226201481574</v>
+        <v>0.321790849654235</v>
       </c>
       <c r="K24">
-        <v>3.370488256179954</v>
+        <v>7.646420419396463</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1505,31 +1505,31 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.04431473388715723</v>
+        <v>0.02210473430751847</v>
       </c>
       <c r="D25">
-        <v>0.05304358222103644</v>
+        <v>0.04283038466977729</v>
       </c>
       <c r="E25">
-        <v>0.1271231589882049</v>
+        <v>0.1342470917660705</v>
       </c>
       <c r="F25">
-        <v>3.300555270540031</v>
+        <v>2.910686674514125</v>
       </c>
       <c r="G25">
-        <v>0.002553927020508039</v>
+        <v>0.0007948781835373734</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.983546348395492</v>
+        <v>1.870524797943318</v>
       </c>
       <c r="J25">
-        <v>0.2325726660076839</v>
+        <v>0.2658129683080546</v>
       </c>
       <c r="K25">
-        <v>3.014266470208554</v>
+        <v>6.17104888607372</v>
       </c>
       <c r="L25">
         <v>0</v>
